--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H2">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I2">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J2">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N2">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P2">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q2">
-        <v>135.2270560254661</v>
+        <v>1319.821978367317</v>
       </c>
       <c r="R2">
-        <v>1217.043504229195</v>
+        <v>11878.39780530585</v>
       </c>
       <c r="S2">
-        <v>0.0004933018519276249</v>
+        <v>0.00374127139099447</v>
       </c>
       <c r="T2">
-        <v>0.0004933018519276249</v>
+        <v>0.00374127139099447</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H3">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I3">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J3">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P3">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q3">
-        <v>2.039807065041667</v>
+        <v>6.860863410625001</v>
       </c>
       <c r="R3">
-        <v>18.358263585375</v>
+        <v>61.74777069562501</v>
       </c>
       <c r="S3">
-        <v>7.441118902792731E-06</v>
+        <v>1.944834410732048E-05</v>
       </c>
       <c r="T3">
-        <v>7.441118902792731E-06</v>
+        <v>1.944834410732048E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H4">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I4">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J4">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N4">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P4">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q4">
-        <v>2199.708939330016</v>
+        <v>6913.637581169258</v>
       </c>
       <c r="R4">
-        <v>19797.38045397015</v>
+        <v>62222.73823052333</v>
       </c>
       <c r="S4">
-        <v>0.008024433315097074</v>
+        <v>0.01959794193011544</v>
       </c>
       <c r="T4">
-        <v>0.008024433315097074</v>
+        <v>0.01959794193011544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H5">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I5">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J5">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N5">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P5">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q5">
-        <v>303.3134530947489</v>
+        <v>256.79255401205</v>
       </c>
       <c r="R5">
-        <v>2729.82107785274</v>
+        <v>2311.13298610845</v>
       </c>
       <c r="S5">
-        <v>0.001106473013048697</v>
+        <v>0.0007279244106346483</v>
       </c>
       <c r="T5">
-        <v>0.001106473013048697</v>
+        <v>0.0007279244106346485</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H6">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I6">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J6">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N6">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P6">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q6">
-        <v>4161.476239562453</v>
+        <v>15856.97105799777</v>
       </c>
       <c r="R6">
-        <v>37453.28615606208</v>
+        <v>142712.7395219799</v>
       </c>
       <c r="S6">
-        <v>0.01518086687727912</v>
+        <v>0.04494941980016313</v>
       </c>
       <c r="T6">
-        <v>0.01518086687727913</v>
+        <v>0.04494941980016314</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.837028333333333</v>
+        <v>29.723225</v>
       </c>
       <c r="H7">
-        <v>26.511085</v>
+        <v>89.169675</v>
       </c>
       <c r="I7">
-        <v>0.03372386849660382</v>
+        <v>0.0820875860023068</v>
       </c>
       <c r="J7">
-        <v>0.03372386849660382</v>
+        <v>0.08208758600230681</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N7">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P7">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q7">
-        <v>2442.836844778834</v>
+        <v>4604.253608697224</v>
       </c>
       <c r="R7">
-        <v>21985.53160300951</v>
+        <v>41438.28247827502</v>
       </c>
       <c r="S7">
-        <v>0.008911352320348507</v>
+        <v>0.01305158012629178</v>
       </c>
       <c r="T7">
-        <v>0.008911352320348509</v>
+        <v>0.01305158012629178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>370.284272</v>
       </c>
       <c r="I8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J8">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N8">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P8">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q8">
-        <v>1888.736428369225</v>
+        <v>5480.667283236612</v>
       </c>
       <c r="R8">
-        <v>16998.62785532302</v>
+        <v>49326.00554912951</v>
       </c>
       <c r="S8">
-        <v>0.006890020424183785</v>
+        <v>0.01553593139560971</v>
       </c>
       <c r="T8">
-        <v>0.006890020424183785</v>
+        <v>0.01553593139560971</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>370.284272</v>
       </c>
       <c r="I9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J9">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P9">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q9">
         <v>28.49028902813334</v>
@@ -1013,10 +1013,10 @@
         <v>256.4126012532</v>
       </c>
       <c r="S9">
-        <v>0.0001039312157833618</v>
+        <v>8.07608185112781E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001039312157833618</v>
+        <v>8.076081851127812E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>370.284272</v>
       </c>
       <c r="I10">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J10">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N10">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P10">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q10">
-        <v>30723.66231754405</v>
+        <v>28709.43803053111</v>
       </c>
       <c r="R10">
-        <v>276512.9608578964</v>
+        <v>258384.94227478</v>
       </c>
       <c r="S10">
-        <v>0.1120784550422311</v>
+        <v>0.08138203554393431</v>
       </c>
       <c r="T10">
-        <v>0.1120784550422311</v>
+        <v>0.08138203554393432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>370.284272</v>
       </c>
       <c r="I11">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J11">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N11">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P11">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q11">
-        <v>4236.424166230663</v>
+        <v>1066.351805334858</v>
       </c>
       <c r="R11">
-        <v>38127.81749607596</v>
+        <v>9597.166248013727</v>
       </c>
       <c r="S11">
-        <v>0.01545427333978912</v>
+        <v>0.003022764863311208</v>
       </c>
       <c r="T11">
-        <v>0.01545427333978912</v>
+        <v>0.003022764863311208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>370.284272</v>
       </c>
       <c r="I12">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J12">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N12">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P12">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q12">
-        <v>58123.95832956972</v>
+        <v>65847.35207721428</v>
       </c>
       <c r="R12">
-        <v>523115.6249661274</v>
+        <v>592626.1686949285</v>
       </c>
       <c r="S12">
-        <v>0.212033428280367</v>
+        <v>0.1866560934255485</v>
       </c>
       <c r="T12">
-        <v>0.2120334282803671</v>
+        <v>0.1866560934255485</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>370.284272</v>
       </c>
       <c r="I13">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672476</v>
       </c>
       <c r="J13">
-        <v>0.4710262931633572</v>
+        <v>0.3408753258672477</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N13">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P13">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q13">
-        <v>34119.4659774848</v>
+        <v>19119.53470279918</v>
       </c>
       <c r="R13">
-        <v>307075.1937973633</v>
+        <v>172075.8123251926</v>
       </c>
       <c r="S13">
-        <v>0.1244661848610028</v>
+        <v>0.05419773982033264</v>
       </c>
       <c r="T13">
-        <v>0.1244661848610028</v>
+        <v>0.05419773982033265</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H14">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I14">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J14">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N14">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P14">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q14">
-        <v>471.7089852861785</v>
+        <v>1423.204497692634</v>
       </c>
       <c r="R14">
-        <v>4245.380867575606</v>
+        <v>12808.84047923371</v>
       </c>
       <c r="S14">
-        <v>0.001720771884353907</v>
+        <v>0.004034327627532683</v>
       </c>
       <c r="T14">
-        <v>0.001720771884353907</v>
+        <v>0.004034327627532682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H15">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I15">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J15">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P15">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q15">
-        <v>7.115405371608334</v>
+        <v>7.398279331683335</v>
       </c>
       <c r="R15">
-        <v>64.03864834447501</v>
+        <v>66.58451398515</v>
       </c>
       <c r="S15">
-        <v>2.595665948957098E-05</v>
+        <v>2.097174562924976E-05</v>
       </c>
       <c r="T15">
-        <v>2.595665948957098E-05</v>
+        <v>2.097174562924976E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H16">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I16">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J16">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N16">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P16">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q16">
-        <v>7673.186876899043</v>
+        <v>7455.187337544472</v>
       </c>
       <c r="R16">
-        <v>69058.68189209138</v>
+        <v>67096.68603790025</v>
       </c>
       <c r="S16">
-        <v>0.02799141982243711</v>
+        <v>0.02113306154740881</v>
       </c>
       <c r="T16">
-        <v>0.02799141982243711</v>
+        <v>0.02113306154740881</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H17">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I17">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J17">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N17">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P17">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q17">
-        <v>1058.04034627528</v>
+        <v>276.9072828261507</v>
       </c>
       <c r="R17">
-        <v>9522.363116477523</v>
+        <v>2492.165545435356</v>
       </c>
       <c r="S17">
-        <v>0.003859680729376008</v>
+        <v>0.0007849432061110661</v>
       </c>
       <c r="T17">
-        <v>0.003859680729376008</v>
+        <v>0.0007849432061110661</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H18">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I18">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J18">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N18">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P18">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q18">
-        <v>14516.36818808561</v>
+        <v>17099.05797859322</v>
       </c>
       <c r="R18">
-        <v>130647.3136927705</v>
+        <v>153891.521807339</v>
       </c>
       <c r="S18">
-        <v>0.05295501892089802</v>
+        <v>0.04847033727033645</v>
       </c>
       <c r="T18">
-        <v>0.05295501892089802</v>
+        <v>0.04847033727033645</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.82597366666667</v>
+        <v>32.05146466666667</v>
       </c>
       <c r="H19">
-        <v>92.47792099999999</v>
+        <v>96.154394</v>
       </c>
       <c r="I19">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="J19">
-        <v>0.1176380840936279</v>
+        <v>0.08851756033623195</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N19">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P19">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q19">
-        <v>8521.283559211037</v>
+        <v>4964.907807128317</v>
       </c>
       <c r="R19">
-        <v>76691.55203289933</v>
+        <v>44684.17026415486</v>
       </c>
       <c r="S19">
-        <v>0.03108523607707327</v>
+        <v>0.01407391893921369</v>
       </c>
       <c r="T19">
-        <v>0.03108523607707327</v>
+        <v>0.01407391893921369</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H20">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I20">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J20">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N20">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P20">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q20">
-        <v>573.2923656311261</v>
+        <v>3602.402982558539</v>
       </c>
       <c r="R20">
-        <v>5159.631290680136</v>
+        <v>32421.62684302685</v>
       </c>
       <c r="S20">
-        <v>0.00209134321173527</v>
+        <v>0.01021165538866978</v>
       </c>
       <c r="T20">
-        <v>0.00209134321173527</v>
+        <v>0.01021165538866978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H21">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I21">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J21">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P21">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q21">
-        <v>8.647720745533334</v>
+        <v>18.72646100645834</v>
       </c>
       <c r="R21">
-        <v>77.82948670980001</v>
+        <v>168.538149058125</v>
       </c>
       <c r="S21">
-        <v>3.154647290347849E-05</v>
+        <v>5.308350214375475E-05</v>
       </c>
       <c r="T21">
-        <v>3.154647290347849E-05</v>
+        <v>5.308350214375475E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H22">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I22">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J22">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N22">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P22">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q22">
-        <v>9325.621503517412</v>
+        <v>18870.50606138754</v>
       </c>
       <c r="R22">
-        <v>83930.5935316567</v>
+        <v>169834.5545524878</v>
       </c>
       <c r="S22">
-        <v>0.03401942254214925</v>
+        <v>0.0534918236082052</v>
       </c>
       <c r="T22">
-        <v>0.03401942254214925</v>
+        <v>0.0534918236082052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H23">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I23">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J23">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N23">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P23">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q23">
-        <v>1285.891242205906</v>
+        <v>700.9053324117167</v>
       </c>
       <c r="R23">
-        <v>11573.02117985315</v>
+        <v>6308.14799170545</v>
       </c>
       <c r="S23">
-        <v>0.004690869932406346</v>
+        <v>0.001986841491449708</v>
       </c>
       <c r="T23">
-        <v>0.004690869932406346</v>
+        <v>0.001986841491449709</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H24">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I24">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J24">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N24">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P24">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q24">
-        <v>17642.49424647089</v>
+        <v>43280.98847417266</v>
       </c>
       <c r="R24">
-        <v>158782.448218238</v>
+        <v>389528.8962675539</v>
       </c>
       <c r="S24">
-        <v>0.06435897770907313</v>
+        <v>0.1226877007705946</v>
       </c>
       <c r="T24">
-        <v>0.06435897770907315</v>
+        <v>0.1226877007705946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.46440266666666</v>
+        <v>81.12839166666667</v>
       </c>
       <c r="H25">
-        <v>112.393208</v>
+        <v>243.385175</v>
       </c>
       <c r="I25">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="J25">
-        <v>0.1429716575728018</v>
+        <v>0.2240548873201455</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N25">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P25">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q25">
-        <v>10356.35733525396</v>
+        <v>12567.13193467572</v>
       </c>
       <c r="R25">
-        <v>93207.21601728565</v>
+        <v>113104.1874120815</v>
       </c>
       <c r="S25">
-        <v>0.03777949770453425</v>
+        <v>0.03562378255908242</v>
       </c>
       <c r="T25">
-        <v>0.03777949770453426</v>
+        <v>0.03562378255908243</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H26">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I26">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J26">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N26">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P26">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q26">
-        <v>547.0526114953346</v>
+        <v>1322.140948226057</v>
       </c>
       <c r="R26">
-        <v>4923.473503458012</v>
+        <v>11899.26853403452</v>
       </c>
       <c r="S26">
-        <v>0.0019956218399199</v>
+        <v>0.003747844925706945</v>
       </c>
       <c r="T26">
-        <v>0.0019956218399199</v>
+        <v>0.003747844925706945</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H27">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I27">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J27">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P27">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q27">
-        <v>8.251912114891667</v>
+        <v>6.872918169308334</v>
       </c>
       <c r="R27">
-        <v>74.267209034025</v>
+        <v>61.856263523775</v>
       </c>
       <c r="S27">
-        <v>3.010258189347454E-05</v>
+        <v>1.948251547628274E-05</v>
       </c>
       <c r="T27">
-        <v>3.010258189347454E-05</v>
+        <v>1.948251547628274E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H28">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I28">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J28">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N28">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P28">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q28">
-        <v>8898.785162959555</v>
+        <v>6925.785065775342</v>
       </c>
       <c r="R28">
-        <v>80089.066466636</v>
+        <v>62332.06559197808</v>
       </c>
       <c r="S28">
-        <v>0.03246234392596205</v>
+        <v>0.01963237614728578</v>
       </c>
       <c r="T28">
-        <v>0.03246234392596205</v>
+        <v>0.01963237614728578</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H29">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I29">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J29">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N29">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P29">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q29">
-        <v>1227.035635427146</v>
+        <v>257.2437468262806</v>
       </c>
       <c r="R29">
-        <v>11043.32071884432</v>
+        <v>2315.193721436526</v>
       </c>
       <c r="S29">
-        <v>0.004476167485472808</v>
+        <v>0.0007292033973429858</v>
       </c>
       <c r="T29">
-        <v>0.004476167485472808</v>
+        <v>0.0007292033973429859</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H30">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I30">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J30">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N30">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P30">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q30">
-        <v>16834.99228216359</v>
+        <v>15884.83226847701</v>
       </c>
       <c r="R30">
-        <v>151514.9305394723</v>
+        <v>142963.4904162931</v>
       </c>
       <c r="S30">
-        <v>0.06141324904991361</v>
+        <v>0.04502839738304398</v>
       </c>
       <c r="T30">
-        <v>0.06141324904991362</v>
+        <v>0.04502839738304399</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>35.74964633333333</v>
+        <v>29.77544966666666</v>
       </c>
       <c r="H31">
-        <v>107.248939</v>
+        <v>89.32634899999999</v>
       </c>
       <c r="I31">
-        <v>0.1364278042651323</v>
+        <v>0.0822318165431193</v>
       </c>
       <c r="J31">
-        <v>0.1364278042651323</v>
+        <v>0.08223181654311931</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N31">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P31">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q31">
-        <v>9882.343923405537</v>
+        <v>4612.343431048702</v>
       </c>
       <c r="R31">
-        <v>88941.09531064983</v>
+        <v>41511.09087943832</v>
       </c>
       <c r="S31">
-        <v>0.03605031938197042</v>
+        <v>0.01307451217426332</v>
       </c>
       <c r="T31">
-        <v>0.03605031938197043</v>
+        <v>0.01307451217426332</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H32">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I32">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J32">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>15.30232233333333</v>
+        <v>44.40372733333334</v>
       </c>
       <c r="N32">
-        <v>45.90696699999999</v>
+        <v>133.211182</v>
       </c>
       <c r="O32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945784</v>
       </c>
       <c r="P32">
-        <v>0.01462767689232637</v>
+        <v>0.04557657951945783</v>
       </c>
       <c r="Q32">
-        <v>393.8148189982434</v>
+        <v>2929.978793593089</v>
       </c>
       <c r="R32">
-        <v>3544.333370984191</v>
+        <v>26369.8091423378</v>
       </c>
       <c r="S32">
-        <v>0.001436617680205881</v>
+        <v>0.00830554879094425</v>
       </c>
       <c r="T32">
-        <v>0.001436617680205881</v>
+        <v>0.00830554879094425</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H33">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I33">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J33">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>0.6924750000000001</v>
       </c>
       <c r="O33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="P33">
-        <v>0.0002206484378724847</v>
+        <v>0.0002369218666848596</v>
       </c>
       <c r="Q33">
-        <v>5.940425486741668</v>
+        <v>15.23098162355</v>
       </c>
       <c r="R33">
-        <v>53.46382938067501</v>
+        <v>137.07883461195</v>
       </c>
       <c r="S33">
-        <v>2.167038889980617E-05</v>
+        <v>4.317494081697376E-05</v>
       </c>
       <c r="T33">
-        <v>2.167038889980617E-05</v>
+        <v>4.317494081697376E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H34">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I34">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J34">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>248.91953</v>
+        <v>232.6005196666667</v>
       </c>
       <c r="N34">
-        <v>746.7585899999999</v>
+        <v>697.801559</v>
       </c>
       <c r="O34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="P34">
-        <v>0.2379452201904173</v>
+        <v>0.2387442838136902</v>
       </c>
       <c r="Q34">
-        <v>6406.099513309896</v>
+        <v>15348.13924259149</v>
       </c>
       <c r="R34">
-        <v>57654.89561978907</v>
+        <v>138133.2531833234</v>
       </c>
       <c r="S34">
-        <v>0.02336914554254074</v>
+        <v>0.04350704503674069</v>
       </c>
       <c r="T34">
-        <v>0.02336914554254074</v>
+        <v>0.0435070450367407</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H35">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I35">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J35">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>34.32301466666667</v>
+        <v>8.639457999999999</v>
       </c>
       <c r="N35">
-        <v>102.969044</v>
+        <v>25.918374</v>
       </c>
       <c r="O35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="P35">
-        <v>0.03280978910115619</v>
+        <v>0.008867655221511721</v>
       </c>
       <c r="Q35">
-        <v>883.3242114488236</v>
+        <v>570.0744115040919</v>
       </c>
       <c r="R35">
-        <v>7949.917903039412</v>
+        <v>5130.669703536828</v>
       </c>
       <c r="S35">
-        <v>0.003222324601063219</v>
+        <v>0.001615977852662105</v>
       </c>
       <c r="T35">
-        <v>0.003222324601063219</v>
+        <v>0.001615977852662105</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H36">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I36">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J36">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>470.9135336666666</v>
+        <v>533.4875693333333</v>
       </c>
       <c r="N36">
-        <v>1412.740601</v>
+        <v>1600.462708</v>
       </c>
       <c r="O36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="P36">
-        <v>0.4501520007649158</v>
+        <v>0.5475787751743605</v>
       </c>
       <c r="Q36">
-        <v>12119.25379592785</v>
+        <v>35202.16339178319</v>
       </c>
       <c r="R36">
-        <v>109073.2841633507</v>
+        <v>316819.4705260487</v>
       </c>
       <c r="S36">
-        <v>0.04421045992738494</v>
+        <v>0.09978682652467387</v>
       </c>
       <c r="T36">
-        <v>0.04421045992738495</v>
+        <v>0.09978682652467388</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.73562433333333</v>
+        <v>65.98497399999999</v>
       </c>
       <c r="H37">
-        <v>77.206873</v>
+        <v>197.954922</v>
       </c>
       <c r="I37">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="J37">
-        <v>0.09821229240847715</v>
+        <v>0.1822328239309489</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>276.4319353333333</v>
+        <v>154.904241</v>
       </c>
       <c r="N37">
-        <v>829.2958060000001</v>
+        <v>464.712723</v>
       </c>
       <c r="O37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="P37">
-        <v>0.2642446646133118</v>
+        <v>0.1589957844042948</v>
       </c>
       <c r="Q37">
-        <v>7114.14844147496</v>
+        <v>10221.35231487473</v>
       </c>
       <c r="R37">
-        <v>64027.33597327465</v>
+        <v>91992.17083387259</v>
       </c>
       <c r="S37">
-        <v>0.02595207426838255</v>
+        <v>0.02897425078511096</v>
       </c>
       <c r="T37">
-        <v>0.02595207426838255</v>
+        <v>0.02897425078511097</v>
       </c>
     </row>
   </sheetData>
